--- a/Assets/Resources/CSV.data/PlayerSelectText.xlsx
+++ b/Assets/Resources/CSV.data/PlayerSelectText.xlsx
@@ -127,10 +127,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>웨이브가 끝날 때 살아있는 모든 적에 대해 재료 &lt;#4CFF52&gt;0.65&lt;/color&gt;개와 XP를 획득합니다&lt;br&gt;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;#4CFF52&gt;1 럼버 잭 셔츠&lt;/color&gt;와(과) 함께 시작합니다&lt;br&gt;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -243,6 +239,10 @@
   </si>
   <si>
     <t>대미지를 받으면 &lt;#4CFF52&gt;30&lt;/color&gt;(300%&lt;sprite=0&gt;300%&lt;sprite=1&gt;300%&lt;sprite=2&gt;) 대미지를 주며 폭발&lt;br&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브가 끝날 때 살아있는 몬스터 당 재료 &lt;#4CFF52&gt;0.65&lt;/color&gt;개와 XP를 획득합니다&lt;br&gt;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1292,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1410,7 +1410,7 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1440,7 +1440,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1448,7 +1448,7 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1456,7 +1456,7 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1464,7 +1464,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1478,7 +1478,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1486,7 +1486,7 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1494,7 +1494,7 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1508,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1516,7 +1516,7 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1524,7 +1524,7 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1532,7 +1532,7 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1540,7 +1540,7 @@
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1554,7 +1554,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1562,7 +1562,7 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1570,7 +1570,7 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1578,7 +1578,7 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1586,7 +1586,7 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1600,7 +1600,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1608,7 +1608,7 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1616,7 +1616,7 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1624,7 +1624,7 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1632,7 +1632,7 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1640,7 +1640,7 @@
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1654,7 +1654,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1662,7 +1662,7 @@
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1670,7 +1670,7 @@
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1678,7 +1678,7 @@
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1686,7 +1686,7 @@
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1694,7 +1694,7 @@
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
